--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna4-Epha3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna4-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Efna4</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.140802333333333</v>
+        <v>1.974568</v>
       </c>
       <c r="H2">
-        <v>3.422407</v>
+        <v>5.923704</v>
       </c>
       <c r="I2">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080697</v>
       </c>
       <c r="J2">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080698</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.106217</v>
+        <v>1.118034</v>
       </c>
       <c r="N2">
-        <v>3.318651</v>
+        <v>3.354102</v>
       </c>
       <c r="O2">
-        <v>0.01813136626967656</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="P2">
-        <v>0.01813136626967656</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="Q2">
-        <v>1.261974934773</v>
+        <v>2.207634159312</v>
       </c>
       <c r="R2">
-        <v>11.357774412957</v>
+        <v>19.868707433808</v>
       </c>
       <c r="S2">
-        <v>0.008479883782660189</v>
+        <v>0.01088572894056182</v>
       </c>
       <c r="T2">
-        <v>0.008479883782660189</v>
+        <v>0.01088572894056183</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.140802333333333</v>
+        <v>1.974568</v>
       </c>
       <c r="H3">
-        <v>3.422407</v>
+        <v>5.923704</v>
       </c>
       <c r="I3">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080697</v>
       </c>
       <c r="J3">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080698</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +626,22 @@
         <v>177.734444</v>
       </c>
       <c r="O3">
-        <v>0.971047664518299</v>
+        <v>0.962887615892719</v>
       </c>
       <c r="P3">
-        <v>0.971047664518299</v>
+        <v>0.9628876158927191</v>
       </c>
       <c r="Q3">
-        <v>67.58662280963421</v>
+        <v>116.9829152067307</v>
       </c>
       <c r="R3">
-        <v>608.2796052867079</v>
+        <v>1052.846236860576</v>
       </c>
       <c r="S3">
-        <v>0.4541506260512858</v>
+        <v>0.5768366557682099</v>
       </c>
       <c r="T3">
-        <v>0.4541506260512858</v>
+        <v>0.57683665576821</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -661,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.140802333333333</v>
+        <v>1.974568</v>
       </c>
       <c r="H4">
-        <v>3.422407</v>
+        <v>5.923704</v>
       </c>
       <c r="I4">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080697</v>
       </c>
       <c r="J4">
-        <v>0.4676913838998554</v>
+        <v>0.5990695552080698</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,43 +682,43 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6602006666666668</v>
+        <v>1.121724666666667</v>
       </c>
       <c r="N4">
-        <v>1.980602</v>
+        <v>3.365174</v>
       </c>
       <c r="O4">
-        <v>0.01082096921202439</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="P4">
-        <v>0.01082096921202439</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="Q4">
-        <v>0.7531584610015556</v>
+        <v>2.214921631610667</v>
       </c>
       <c r="R4">
-        <v>6.778426149014</v>
+        <v>19.934294684496</v>
       </c>
       <c r="S4">
-        <v>0.005060874065909413</v>
+        <v>0.01092166308652098</v>
       </c>
       <c r="T4">
-        <v>0.005060874065909412</v>
+        <v>0.01092166308652098</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.020259</v>
+        <v>1.974568</v>
       </c>
       <c r="H5">
-        <v>3.060777</v>
+        <v>5.923704</v>
       </c>
       <c r="I5">
-        <v>0.4182725873745722</v>
+        <v>0.5990695552080697</v>
       </c>
       <c r="J5">
-        <v>0.4182725873745722</v>
+        <v>0.5990695552080698</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.106217</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N5">
-        <v>3.318651</v>
+        <v>0.131107</v>
       </c>
       <c r="O5">
-        <v>0.01813136626967656</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="P5">
-        <v>0.01813136626967656</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="Q5">
-        <v>1.128627850203</v>
+        <v>0.08629322892533334</v>
       </c>
       <c r="R5">
-        <v>10.157650651827</v>
+        <v>0.776639060328</v>
       </c>
       <c r="S5">
-        <v>0.007583853482253661</v>
+        <v>0.0004255074127770231</v>
       </c>
       <c r="T5">
-        <v>0.007583853482253661</v>
+        <v>0.0004255074127770232</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,13 +773,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +794,40 @@
         <v>3.060777</v>
       </c>
       <c r="I6">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="J6">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>59.24481466666666</v>
+        <v>1.118034</v>
       </c>
       <c r="N6">
-        <v>177.734444</v>
+        <v>3.354102</v>
       </c>
       <c r="O6">
-        <v>0.971047664518299</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="P6">
-        <v>0.971047664518299</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="Q6">
-        <v>60.44505536699867</v>
+        <v>1.140684250806</v>
       </c>
       <c r="R6">
-        <v>544.0054983029879</v>
+        <v>10.266158257254</v>
       </c>
       <c r="S6">
-        <v>0.4061626191021045</v>
+        <v>0.005624654569084815</v>
       </c>
       <c r="T6">
-        <v>0.4061626191021045</v>
+        <v>0.005624654569084815</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +856,10 @@
         <v>3.060777</v>
       </c>
       <c r="I7">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="J7">
-        <v>0.4182725873745722</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,152 +868,152 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6602006666666668</v>
+        <v>59.24481466666666</v>
       </c>
       <c r="N7">
-        <v>1.980602</v>
+        <v>177.734444</v>
       </c>
       <c r="O7">
-        <v>0.01082096921202439</v>
+        <v>0.962887615892719</v>
       </c>
       <c r="P7">
-        <v>0.01082096921202439</v>
+        <v>0.9628876158927191</v>
       </c>
       <c r="Q7">
-        <v>0.6735756719726668</v>
+        <v>60.44505536699867</v>
       </c>
       <c r="R7">
-        <v>6.062181047754001</v>
+        <v>544.0054983029879</v>
       </c>
       <c r="S7">
-        <v>0.004526114790214027</v>
+        <v>0.2980514166022229</v>
       </c>
       <c r="T7">
-        <v>0.004526114790214026</v>
+        <v>0.298051416602223</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.06907100000000001</v>
+        <v>1.020259</v>
       </c>
       <c r="H8">
-        <v>0.207213</v>
+        <v>3.060777</v>
       </c>
       <c r="I8">
-        <v>0.02831683511985592</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="J8">
-        <v>0.02831683511985592</v>
+        <v>0.309539152527049</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.106217</v>
+        <v>1.121724666666667</v>
       </c>
       <c r="N8">
-        <v>3.318651</v>
+        <v>3.365174</v>
       </c>
       <c r="O8">
-        <v>0.01813136626967656</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="P8">
-        <v>0.01813136626967656</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="Q8">
-        <v>0.07640751440700001</v>
+        <v>1.144449686688667</v>
       </c>
       <c r="R8">
-        <v>0.687667629663</v>
+        <v>10.300047180198</v>
       </c>
       <c r="S8">
-        <v>0.0005134229091561483</v>
+        <v>0.005643221737104425</v>
       </c>
       <c r="T8">
-        <v>0.0005134229091561483</v>
+        <v>0.005643221737104425</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.020259</v>
+      </c>
+      <c r="H9">
+        <v>3.060777</v>
+      </c>
+      <c r="I9">
+        <v>0.309539152527049</v>
+      </c>
+      <c r="J9">
+        <v>0.309539152527049</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.06907100000000001</v>
-      </c>
-      <c r="H9">
-        <v>0.207213</v>
-      </c>
-      <c r="I9">
-        <v>0.02831683511985592</v>
-      </c>
-      <c r="J9">
-        <v>0.02831683511985592</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
       <c r="M9">
-        <v>59.24481466666666</v>
+        <v>0.04370233333333334</v>
       </c>
       <c r="N9">
-        <v>177.734444</v>
+        <v>0.131107</v>
       </c>
       <c r="O9">
-        <v>0.971047664518299</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="P9">
-        <v>0.971047664518299</v>
+        <v>0.0007102804825880949</v>
       </c>
       <c r="Q9">
-        <v>4.092098593841333</v>
+        <v>0.04458769890433334</v>
       </c>
       <c r="R9">
-        <v>36.828887344572</v>
+        <v>0.401289290139</v>
       </c>
       <c r="S9">
-        <v>0.02749699660968584</v>
+        <v>0.0002198596186368223</v>
       </c>
       <c r="T9">
-        <v>0.02749699660968584</v>
+        <v>0.0002198596186368223</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,13 +1021,13 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1033,140 +1036,140 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.06907100000000001</v>
+        <v>0.077601</v>
       </c>
       <c r="H10">
-        <v>0.207213</v>
+        <v>0.232803</v>
       </c>
       <c r="I10">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="J10">
-        <v>0.02831683511985592</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.6602006666666668</v>
+        <v>1.118034</v>
       </c>
       <c r="N10">
-        <v>1.980602</v>
+        <v>3.354102</v>
       </c>
       <c r="O10">
-        <v>0.01082096921202439</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="P10">
-        <v>0.01082096921202439</v>
+        <v>0.01817106018145251</v>
       </c>
       <c r="Q10">
-        <v>0.04560072024733335</v>
+        <v>0.08676055643400001</v>
       </c>
       <c r="R10">
-        <v>0.4104064822260001</v>
+        <v>0.7808450079060001</v>
       </c>
       <c r="S10">
-        <v>0.0003064156010139319</v>
+        <v>0.0004278117803572923</v>
       </c>
       <c r="T10">
-        <v>0.0003064156010139318</v>
+        <v>0.0004278117803572925</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.209088</v>
+        <v>0.077601</v>
       </c>
       <c r="H11">
-        <v>0.627264</v>
+        <v>0.232803</v>
       </c>
       <c r="I11">
-        <v>0.08571919360571637</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="J11">
-        <v>0.08571919360571637</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1.106217</v>
+        <v>59.24481466666666</v>
       </c>
       <c r="N11">
-        <v>3.318651</v>
+        <v>177.734444</v>
       </c>
       <c r="O11">
-        <v>0.01813136626967656</v>
+        <v>0.962887615892719</v>
       </c>
       <c r="P11">
-        <v>0.01813136626967656</v>
+        <v>0.9628876158927191</v>
       </c>
       <c r="Q11">
-        <v>0.231296700096</v>
+        <v>4.597456862947999</v>
       </c>
       <c r="R11">
-        <v>2.081670300864</v>
+        <v>41.377111766532</v>
       </c>
       <c r="S11">
-        <v>0.00155420609560656</v>
+        <v>0.02266982009445552</v>
       </c>
       <c r="T11">
-        <v>0.00155420609560656</v>
+        <v>0.02266982009445553</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.209088</v>
+        <v>0.077601</v>
       </c>
       <c r="H12">
-        <v>0.627264</v>
+        <v>0.232803</v>
       </c>
       <c r="I12">
-        <v>0.08571919360571637</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="J12">
-        <v>0.08571919360571637</v>
+        <v>0.02354357842003994</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,90 +1178,586 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>59.24481466666666</v>
+        <v>1.121724666666667</v>
       </c>
       <c r="N12">
-        <v>177.734444</v>
+        <v>3.365174</v>
       </c>
       <c r="O12">
-        <v>0.971047664518299</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="P12">
-        <v>0.971047664518299</v>
+        <v>0.01823104344324033</v>
       </c>
       <c r="Q12">
-        <v>12.387379809024</v>
+        <v>0.087046955858</v>
       </c>
       <c r="R12">
-        <v>111.486418281216</v>
+        <v>0.783422602722</v>
       </c>
       <c r="S12">
-        <v>0.08323742275522279</v>
+        <v>0.0004292240009850836</v>
       </c>
       <c r="T12">
-        <v>0.08323742275522279</v>
+        <v>0.0004292240009850837</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.077601</v>
+      </c>
+      <c r="H13">
+        <v>0.232803</v>
+      </c>
+      <c r="I13">
+        <v>0.02354357842003994</v>
+      </c>
+      <c r="J13">
+        <v>0.02354357842003994</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N13">
+        <v>0.131107</v>
+      </c>
+      <c r="O13">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="P13">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="Q13">
+        <v>0.003391344769000001</v>
+      </c>
+      <c r="R13">
+        <v>0.030522102921</v>
+      </c>
+      <c r="S13">
+        <v>1.672254424203662E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.672254424203663E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.1837383333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.551215</v>
+      </c>
+      <c r="I14">
+        <v>0.05574487261247628</v>
+      </c>
+      <c r="J14">
+        <v>0.05574487261247628</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.118034</v>
+      </c>
+      <c r="N14">
+        <v>3.354102</v>
+      </c>
+      <c r="O14">
+        <v>0.01817106018145251</v>
+      </c>
+      <c r="P14">
+        <v>0.01817106018145251</v>
+      </c>
+      <c r="Q14">
+        <v>0.20542570377</v>
+      </c>
+      <c r="R14">
+        <v>1.84883133393</v>
+      </c>
+      <c r="S14">
+        <v>0.00101294343504871</v>
+      </c>
+      <c r="T14">
+        <v>0.00101294343504871</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.1837383333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.551215</v>
+      </c>
+      <c r="I15">
+        <v>0.05574487261247628</v>
+      </c>
+      <c r="J15">
+        <v>0.05574487261247628</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>59.24481466666666</v>
+      </c>
+      <c r="N15">
+        <v>177.734444</v>
+      </c>
+      <c r="O15">
+        <v>0.962887615892719</v>
+      </c>
+      <c r="P15">
+        <v>0.9628876158927191</v>
+      </c>
+      <c r="Q15">
+        <v>10.88554350549555</v>
+      </c>
+      <c r="R15">
+        <v>97.96989154946</v>
+      </c>
+      <c r="S15">
+        <v>0.05367604748807061</v>
+      </c>
+      <c r="T15">
+        <v>0.05367604748807062</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.1837383333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.551215</v>
+      </c>
+      <c r="I16">
+        <v>0.05574487261247628</v>
+      </c>
+      <c r="J16">
+        <v>0.05574487261247628</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.121724666666667</v>
+      </c>
+      <c r="N16">
+        <v>3.365174</v>
+      </c>
+      <c r="O16">
+        <v>0.01823104344324033</v>
+      </c>
+      <c r="P16">
+        <v>0.01823104344324033</v>
+      </c>
+      <c r="Q16">
+        <v>0.2061038207122222</v>
+      </c>
+      <c r="R16">
+        <v>1.85493438641</v>
+      </c>
+      <c r="S16">
+        <v>0.001016287194335953</v>
+      </c>
+      <c r="T16">
+        <v>0.001016287194335953</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.1837383333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.551215</v>
+      </c>
+      <c r="I17">
+        <v>0.05574487261247628</v>
+      </c>
+      <c r="J17">
+        <v>0.05574487261247628</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N17">
+        <v>0.131107</v>
+      </c>
+      <c r="O17">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="P17">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="Q17">
+        <v>0.008029793889444446</v>
+      </c>
+      <c r="R17">
+        <v>0.07226814500500001</v>
+      </c>
+      <c r="S17">
+        <v>3.959449502100153E-05</v>
+      </c>
+      <c r="T17">
+        <v>3.959449502100153E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.03989166666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.119675</v>
+      </c>
+      <c r="I18">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="J18">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>1.118034</v>
+      </c>
+      <c r="N18">
+        <v>3.354102</v>
+      </c>
+      <c r="O18">
+        <v>0.01817106018145251</v>
+      </c>
+      <c r="P18">
+        <v>0.01817106018145251</v>
+      </c>
+      <c r="Q18">
+        <v>0.04460023965</v>
+      </c>
+      <c r="R18">
+        <v>0.40140215685</v>
+      </c>
+      <c r="S18">
+        <v>0.0002199214563998701</v>
+      </c>
+      <c r="T18">
+        <v>0.0002199214563998702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.03989166666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.119675</v>
+      </c>
+      <c r="I19">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="J19">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>59.24481466666666</v>
+      </c>
+      <c r="N19">
+        <v>177.734444</v>
+      </c>
+      <c r="O19">
+        <v>0.962887615892719</v>
+      </c>
+      <c r="P19">
+        <v>0.9628876158927191</v>
+      </c>
+      <c r="Q19">
+        <v>2.363374398411111</v>
+      </c>
+      <c r="R19">
+        <v>21.2703695857</v>
+      </c>
+      <c r="S19">
+        <v>0.01165367593976008</v>
+      </c>
+      <c r="T19">
+        <v>0.01165367593976008</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.209088</v>
-      </c>
-      <c r="H13">
-        <v>0.627264</v>
-      </c>
-      <c r="I13">
-        <v>0.08571919360571637</v>
-      </c>
-      <c r="J13">
-        <v>0.08571919360571637</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.6602006666666668</v>
-      </c>
-      <c r="N13">
-        <v>1.980602</v>
-      </c>
-      <c r="O13">
-        <v>0.01082096921202439</v>
-      </c>
-      <c r="P13">
-        <v>0.01082096921202439</v>
-      </c>
-      <c r="Q13">
-        <v>0.138040036992</v>
-      </c>
-      <c r="R13">
-        <v>1.242360332928</v>
-      </c>
-      <c r="S13">
-        <v>0.0009275647548870145</v>
-      </c>
-      <c r="T13">
-        <v>0.0009275647548870144</v>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.03989166666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.119675</v>
+      </c>
+      <c r="I20">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="J20">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.121724666666667</v>
+      </c>
+      <c r="N20">
+        <v>3.365174</v>
+      </c>
+      <c r="O20">
+        <v>0.01823104344324033</v>
+      </c>
+      <c r="P20">
+        <v>0.01823104344324033</v>
+      </c>
+      <c r="Q20">
+        <v>0.04474746649444444</v>
+      </c>
+      <c r="R20">
+        <v>0.40272719845</v>
+      </c>
+      <c r="S20">
+        <v>0.0002206474242938875</v>
+      </c>
+      <c r="T20">
+        <v>0.0002206474242938875</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.03989166666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.119675</v>
+      </c>
+      <c r="I21">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="J21">
+        <v>0.01210284123236505</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.04370233333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.131107</v>
+      </c>
+      <c r="O21">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="P21">
+        <v>0.0007102804825880949</v>
+      </c>
+      <c r="Q21">
+        <v>0.001743358913888889</v>
+      </c>
+      <c r="R21">
+        <v>0.015690230225</v>
+      </c>
+      <c r="S21">
+        <v>8.596411911211337E-06</v>
+      </c>
+      <c r="T21">
+        <v>8.596411911211339E-06</v>
       </c>
     </row>
   </sheetData>
